--- a/Components/FAIO_Sip-And-Puff_BOM.xlsx
+++ b/Components/FAIO_Sip-And-Puff_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\FAIO-2\FAIO-Sip-And-Puff\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\FAIO-2\FAIO_Sip-And-Puff\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED8722-EF96-453C-B05A-FEE616DBF890}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC053645-42D0-4514-8C83-768A0BCBDEE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="20700" windowHeight="11140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="57">
   <si>
     <t>Index</t>
   </si>
@@ -64,15 +64,6 @@
     <t>1568-1213-ND</t>
   </si>
   <si>
-    <t>RES 470K OHM 1/4W 5% AXIAL</t>
-  </si>
-  <si>
-    <t>CF14JT4K70</t>
-  </si>
-  <si>
-    <t>CF14JT4K70CT-ND</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/products/en?keywords=COM-12986</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t xml:space="preserve">https://www.digikey.com/product-detail/en/cui-inc/SJ1-3535NG/CP1-3535NG-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT4K70/CF14JT4K70CT-ND </t>
-  </si>
-  <si>
     <t>ADAFRUIT FEATHER M0 BASIC PROTO</t>
   </si>
   <si>
@@ -188,6 +176,30 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPPC041LGBN-RC/S5479-ND/775937</t>
+  </si>
+  <si>
+    <t>CF14JT470RCT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT470R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 470 OHM 1/4W 5% AXIAL </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT470R/CF14JT470RCT-ND/1830342</t>
+  </si>
+  <si>
+    <t>MPX12GP-ND</t>
+  </si>
+  <si>
+    <t>MPX12GP</t>
+  </si>
+  <si>
+    <t>SENSOR GAUGE PRESS 1.45PSI MAX</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/nxp-usa-inc/MPX12GP/MPX12GP-ND/951783</t>
   </si>
 </sst>
 </file>
@@ -579,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -619,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -630,19 +642,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>2772</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2">
         <v>19.95</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -665,7 +677,7 @@
         <v>2.95</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -676,19 +688,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
         <v>2886</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7">
         <v>0.95</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -699,19 +711,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F5" s="7">
         <v>0.1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -722,19 +734,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7">
         <v>1.25</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -745,19 +757,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7">
         <v>6.57</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -768,19 +780,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7">
         <v>0.1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -791,19 +803,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7">
         <v>0.24</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -814,297 +826,342 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7">
         <v>0.56999999999999995</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="F11" s="2" t="s">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12.87</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2">
-        <f>(F2*B2+F3*B3+F4*B4+F5*B5+F6*B6+F7*B7+F8*B8+F9*B9+F10*B10)</f>
-        <v>32.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="5" t="s">
-        <v>26</v>
+      <c r="G12" s="2">
+        <f>(F2*B2+F3*B3+F4*B4+F5*B5+F6*B6+F7*B7+F8*B8+F9*B9+F10*B10+F11*B11)</f>
+        <v>45.55</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2771</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2">
-        <v>19.95</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>30</v>
+      <c r="H14" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2771</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F15" s="2">
-        <v>2.95</v>
+        <v>19.95</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>2886</v>
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F16" s="2">
-        <v>0.95</v>
+        <v>2.95</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17">
+        <v>2886</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="2">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
         <v>6</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6.57</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="2">
-        <v>6.57</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <v>0.1</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
         <v>9</v>
       </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12.87</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="F25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="2">
-        <f>(F14*B14+F15*B15+F16*B16+F17*B17+F18*B18+F19*B19+F20*B20+F21*B21+F22*B22)</f>
-        <v>32.68</v>
+      <c r="G25" s="2">
+        <f>(F15*B15+F16*B16+F17*B17+F18*B18+F19*B19+F20*B20+F21*B21+F22*B22+F23*B23+F24*B24)</f>
+        <v>45.55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{25D91ED2-B16F-4D51-9CD9-F9FA81ADFFBE}"/>
-    <hyperlink ref="H15" r:id="rId2" xr:uid="{9998E661-EE9D-476E-A924-9E844227F0A2}"/>
-    <hyperlink ref="H16" r:id="rId3" xr:uid="{EAD79C85-527B-4905-B423-A7FDCB04F2E9}"/>
-    <hyperlink ref="H18" r:id="rId4" xr:uid="{38D01619-2C1C-436F-A205-9F6DD827B7B7}"/>
-    <hyperlink ref="H17" r:id="rId5" xr:uid="{05844798-3F52-430D-B440-EA4B61FA4E0A}"/>
-    <hyperlink ref="H14" r:id="rId6" xr:uid="{D3605EDB-2688-4299-9573-CAEE8EA4B512}"/>
+    <hyperlink ref="H16" r:id="rId2" xr:uid="{9998E661-EE9D-476E-A924-9E844227F0A2}"/>
+    <hyperlink ref="H17" r:id="rId3" xr:uid="{EAD79C85-527B-4905-B423-A7FDCB04F2E9}"/>
+    <hyperlink ref="H19" r:id="rId4" xr:uid="{38D01619-2C1C-436F-A205-9F6DD827B7B7}"/>
+    <hyperlink ref="H15" r:id="rId5" xr:uid="{D3605EDB-2688-4299-9573-CAEE8EA4B512}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2EBB79-64DA-4046-BB4C-7A9E04984D82}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1140,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1151,20 +1208,20 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>2995</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
         <v>29.95</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1188,7 +1245,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1199,20 +1256,20 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>2886</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
         <v>0.95</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1222,21 +1279,21 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.1</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
+      <c r="H5" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1247,20 +1304,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>1.25</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1271,20 +1328,20 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
         <v>6.57</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1295,20 +1352,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2">
         <v>0.1</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1319,20 +1376,20 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2">
         <v>0.24</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1343,150 +1400,150 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2">
         <v>0.56999999999999995</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2">
-        <f>(F2*B2+F3*B3+F4*B4+F5*B5+F6*B6+F7*B7+F8*B8+F9*B9+F10*B10)</f>
-        <v>42.680000000000007</v>
-      </c>
-      <c r="H11" s="2"/>
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12.87</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <f>(F2*B2+F3*B3+F4*B4+F5*B5+F6*B6+F7*B7+F8*B8+F9*B9+F10*B10+F11*B11)</f>
+        <v>55.550000000000004</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="H14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
         <v>2829</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2">
         <v>29.95</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2.95</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>2886</v>
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F16" s="2">
-        <v>0.95</v>
+        <v>2.95</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1494,176 +1551,223 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>2886</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="2">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.25</v>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.1</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="4" t="s">
-        <v>21</v>
+      <c r="H18" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2">
-        <v>6.57</v>
+        <v>1.25</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2">
-        <v>0.1</v>
+        <v>6.57</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
         <v>9</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2"/>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <f>(F14*B14+F15*B15+F16*B16+F17*B17+F18*B18+F19*B19+F20*B20+F21*B21+F22*B22)</f>
-        <v>42.680000000000007</v>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12.87</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <f>(F15*B15+F16*B16+F17*B17+F18*B18+F19*B19+F20*B20+F21*B21+F22*B22+F23*B23+F24*B24)</f>
+        <v>55.550000000000004</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{54DCDEF7-55E6-4D66-B894-BD702A3DCFA4}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{E41DE43C-EF19-40E9-AB59-5C08E9976EB2}"/>
     <hyperlink ref="H6" r:id="rId3" xr:uid="{02FA6F36-D8D7-4B6B-A83C-7D527827EDA3}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{A68A3A4C-B640-4177-A7DA-2AA656815F43}"/>
-    <hyperlink ref="H2" r:id="rId5" xr:uid="{D0531FA3-65AA-4786-B0F0-C70B85428592}"/>
-    <hyperlink ref="H15" r:id="rId6" xr:uid="{0F47E7CA-717D-48A8-AB7D-C053F03A91B7}"/>
-    <hyperlink ref="H16" r:id="rId7" xr:uid="{F5E32E96-E2E2-4B11-AD8C-76252EA44C31}"/>
-    <hyperlink ref="H20" r:id="rId8" display="https://www.digikey.com/product-detail/en/cui-inc/SJ1-3535NG/CP1-3535NG-ND " xr:uid="{5E04054A-9650-4380-AAB4-3DB187100DDF}"/>
-    <hyperlink ref="H18" r:id="rId9" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT4K70/CF14JT4K70CT-ND " xr:uid="{460DDB37-D4DD-4F12-98F6-34FC71365341}"/>
-    <hyperlink ref="H14" r:id="rId10" xr:uid="{0F160FD1-FEB9-4B42-9A72-00182DF14A0A}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{D0531FA3-65AA-4786-B0F0-C70B85428592}"/>
+    <hyperlink ref="H16" r:id="rId5" xr:uid="{0F47E7CA-717D-48A8-AB7D-C053F03A91B7}"/>
+    <hyperlink ref="H17" r:id="rId6" xr:uid="{F5E32E96-E2E2-4B11-AD8C-76252EA44C31}"/>
+    <hyperlink ref="H21" r:id="rId7" display="https://www.digikey.com/product-detail/en/cui-inc/SJ1-3535NG/CP1-3535NG-ND " xr:uid="{5E04054A-9650-4380-AAB4-3DB187100DDF}"/>
+    <hyperlink ref="H19" r:id="rId8" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT4K70/CF14JT4K70CT-ND " xr:uid="{460DDB37-D4DD-4F12-98F6-34FC71365341}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{0F160FD1-FEB9-4B42-9A72-00182DF14A0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>